--- a/数据整理/stocks/A股/深证主板/002163-海南发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/002163-海南发展.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.22</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.07</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7890</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.22</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.07</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4316</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161123</t>
+          <t>165525</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达并购重组指数（LOF）</t>
+          <t>信诚中证基建工程指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>10.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>165525</t>
+          <t>161123</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信诚中证基建工程指数（LOF）</t>
+          <t>易方达并购重组指数（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005126</t>
+          <t>161123</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河量化稳进混合</t>
+          <t>易方达并购重组指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>80.88</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -688,15 +758,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>28.97</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.63</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -706,25 +786,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519614</t>
+          <t>519615</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银河君尚灵活配置混合C</t>
+          <t>银河君尚灵活配置混合I</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>28.97</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.63</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519615</t>
+          <t>005126</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河君尚灵活配置混合I</t>
+          <t>银河量化稳进混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28.97</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161123</t>
+          <t>519614</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达并购重组指数（LOF）</t>
+          <t>银河君尚灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002163-海南发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/002163-海南发展.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2284</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002163-海南发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/002163-海南发展.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002163-海南发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/002163-海南发展.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1239,4 +1240,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002163-海南发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/002163-海南发展.xlsx
@@ -1264,12 +1264,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002163-海南发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/002163-海南发展.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.22</v>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1295,14 +1338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.32</v>
       </c>
     </row>
     <row r="4">
@@ -1311,14 +1376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.24</v>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1327,13 +1414,377 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>68.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002163-海南发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/002163-海南发展.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,205 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005223</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证基建工程指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7890</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>10</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005224</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证基建工程指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4316</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>165525</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信诚中证基建工程指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.68</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3289</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161123</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达并购重组指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1809</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.73</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -663,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -714,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161123</t>
+          <t>005459</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达并购重组指数（LOF）</t>
+          <t>银河嘉谊灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>44.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1636</t>
+          <t>0.0376</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -762,22 +670,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>28.97</t>
+          <t>29.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0381</t>
+          <t>0.0341</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -800,22 +708,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28.97</t>
+          <t>29.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0381</t>
+          <t>0.0341</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -828,36 +736,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005126</t>
+          <t>005460</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河量化稳进混合</t>
+          <t>银河嘉谊灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>80.88</t>
+          <t>44.13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0279</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -866,36 +774,224 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>68.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>519614</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>银河君尚灵活配置混合C</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -960,36 +1056,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001749</t>
+          <t>002103</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商中国机遇股票</t>
+          <t>招商康泰灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>78.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2284</t>
+          <t>0.1153</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1008,26 +1104,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>81.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0620</t>
+          <t>0.0674</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1046,26 +1142,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>81.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0281</t>
+          <t>0.0324</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1130,36 +1226,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002103</t>
+          <t>001749</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商康泰灵活配置混合</t>
+          <t>招商中国机遇股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.89</t>
+          <t>94.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1153</t>
+          <t>0.2284</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1178,26 +1274,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.98</t>
+          <t>92.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0674</t>
+          <t>0.0620</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1216,26 +1312,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.98</t>
+          <t>92.01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0324</t>
+          <t>0.0281</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1249,7 +1345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1270,7 +1366,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1300,36 +1396,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005459</t>
+          <t>161123</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河嘉谊灵活配置混合A</t>
+          <t>易方达并购重组指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>44.13</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0376</t>
+          <t>0.1636</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1348,22 +1444,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>29.82</t>
+          <t>28.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0341</t>
+          <t>0.0381</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1386,22 +1482,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>29.82</t>
+          <t>28.97</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0341</t>
+          <t>0.0381</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1414,36 +1510,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005460</t>
+          <t>005126</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河嘉谊灵活配置混合C</t>
+          <t>银河量化稳进混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>44.13</t>
+          <t>80.88</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0279</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1452,224 +1548,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002630</t>
+          <t>519614</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>江信瑞福灵活配置混合A</t>
+          <t>银河君尚灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>43.20</t>
+          <t>28.97</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0158</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002631</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>江信瑞福灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>43.20</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0151</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005126</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银河量化稳进混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>71.60</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005053</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银河量化价值混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>68.29</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519614</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银河君尚灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>29.82</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>013026</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>银河量化价值混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>68.29</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1683,112 +1591,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>005223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7890</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.17</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>005224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4316</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.73</v>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>